--- a/template/notebooks/excel_export/excel_templates/existing-excel-example.xlsx
+++ b/template/notebooks/excel_export/excel_templates/existing-excel-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.wang\Repos\Gryphon\export-to-excel\template\notebooks\excel_export\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929FE859-EAC7-4632-B7B3-3F7B256B6CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D79E43-5AB2-464B-8877-87CED5A53EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{60873B4A-1B6A-48B3-8E24-7703F1F923C4}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -725,23 +725,23 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="5">
-        <f>G4</f>
+        <f>data!G4</f>
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f>H4</f>
+        <f>data!H4</f>
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f>I4</f>
+        <f>data!I4</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f>J4</f>
+        <f>data!J4</f>
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <f>K4</f>
+        <f>data!K4</f>
         <v>0</v>
       </c>
     </row>
